--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/50TB_TG102LE-4G_ESIM_211024.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/50TB_TG102LE-4G_ESIM_211024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\19.Lô 1-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A013DE73-F8DE-4F2F-BE25-E01F4409BE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF90548-56D3-45C8-993E-0E98626EB584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BB8BB20A-DADB-4502-9219-8545458BC20B}"/>
   </bookViews>
@@ -252,12 +252,6 @@
     <t>006011074330028</t>
   </si>
   <si>
-    <t>84842601244</t>
-  </si>
-  <si>
-    <t>1150017000</t>
-  </si>
-  <si>
     <t>006011074328956</t>
   </si>
   <si>
@@ -478,6 +472,12 @@
   </si>
   <si>
     <t>006011074328154</t>
+  </si>
+  <si>
+    <t>84842603371</t>
+  </si>
+  <si>
+    <t>1150017295</t>
   </si>
 </sst>
 </file>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB308DE6-DEE7-4D5A-A59E-C191F88BD84E}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,57 +1179,57 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1237,142 +1237,142 @@
         <v>84842603965</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1380,87 +1380,87 @@
         <v>84842601312</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
